--- a/DataFileSamples/Sedimentary/QFL.xlsx
+++ b/DataFileSamples/Sedimentary/QFL.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoCode/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\GeoPyTool\DataFileSamples\Sedimentary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9D0AE-D4F0-42A8-9A8F-D07DCE924514}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="920" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17760" yWindow="1785" windowWidth="12150" windowHeight="20955" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,9 +46,6 @@
     <t>Lt</t>
   </si>
   <si>
-    <t>References</t>
-  </si>
-  <si>
     <t>Western subprovince, western North Atlantic Quaternary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,12 +688,16 @@
   <si>
     <t>P</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -879,7 +881,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
@@ -910,6 +912,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1236,20 +1241,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.5" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
@@ -1258,10 +1263,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1276,25 +1281,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>0</v>
@@ -1302,7 +1307,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>87</v>
@@ -1320,36 +1325,36 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
         <v>169</v>
       </c>
-      <c r="H2" t="s">
-        <v>170</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K2" s="2">
-        <v>50</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N2" s="2">
         <v>0.4</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>89</v>
@@ -1367,36 +1372,36 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K3" s="2">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N3" s="2">
         <v>0.4</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>98</v>
@@ -1414,36 +1419,36 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" t="s">
         <v>169</v>
       </c>
-      <c r="H4" t="s">
-        <v>170</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K4" s="2">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N4" s="2">
         <v>0.4</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>96</v>
@@ -1461,36 +1466,36 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K5" s="2">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N5" s="2">
         <v>0.4</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>99</v>
@@ -1508,36 +1513,36 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
         <v>169</v>
       </c>
-      <c r="H6" t="s">
-        <v>170</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K6" s="2">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N6" s="2">
         <v>0.4</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>100</v>
@@ -1555,36 +1560,36 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="2">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N7" s="2">
         <v>0.4</v>
       </c>
       <c r="O7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>88</v>
@@ -1602,36 +1607,36 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
         <v>169</v>
       </c>
-      <c r="H8" t="s">
-        <v>170</v>
-      </c>
       <c r="I8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="2">
-        <v>50</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N8" s="2">
         <v>0.4</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>90</v>
@@ -1649,36 +1654,36 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K9" s="2">
-        <v>50</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N9" s="2">
         <v>0.4</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
         <v>94</v>
@@ -1696,36 +1701,36 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
         <v>169</v>
       </c>
-      <c r="H10" t="s">
-        <v>170</v>
-      </c>
       <c r="I10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="2">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N10" s="2">
         <v>0.4</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>93</v>
@@ -1743,36 +1748,36 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K11" s="2">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N11" s="2">
         <v>0.4</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>94</v>
@@ -1790,36 +1795,36 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
         <v>169</v>
       </c>
-      <c r="H12" t="s">
-        <v>170</v>
-      </c>
       <c r="I12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K12" s="2">
-        <v>50</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="N12" s="2">
         <v>0.4</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>76</v>
@@ -1837,36 +1842,36 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2">
+        <v>50</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="2">
-        <v>50</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N13" s="2">
         <v>0.5</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
         <v>78</v>
@@ -1884,36 +1889,36 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="2">
-        <v>50</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N14" s="2">
         <v>0.5</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>72</v>
@@ -1931,36 +1936,36 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2">
+        <v>50</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="2">
-        <v>50</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N15" s="2">
         <v>0.5</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <v>72</v>
@@ -1978,36 +1983,36 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2">
+        <v>50</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="2">
-        <v>50</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N16" s="2">
         <v>0.5</v>
       </c>
       <c r="O16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>75</v>
@@ -2025,36 +2030,36 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2">
+        <v>50</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="2">
-        <v>50</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N17" s="2">
         <v>0.5</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <v>72</v>
@@ -2072,36 +2077,36 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2">
+        <v>50</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="2">
-        <v>50</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N18" s="2">
         <v>0.5</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <v>46</v>
@@ -2119,17 +2124,17 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K19" s="2">
         <v>50</v>
       </c>
@@ -2137,18 +2142,18 @@
         <v>0.6</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N19" s="2">
         <v>1.5</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3">
         <v>37</v>
@@ -2166,17 +2171,17 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K20" s="2">
         <v>50</v>
       </c>
@@ -2184,18 +2189,18 @@
         <v>0.6</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N20" s="2">
         <v>2.5</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3">
         <v>56</v>
@@ -2213,17 +2218,17 @@
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K21" s="2">
         <v>50</v>
       </c>
@@ -2231,18 +2236,18 @@
         <v>0.6</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2">
         <v>3.5</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
         <v>50</v>
@@ -2260,17 +2265,17 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K22" s="2">
         <v>50</v>
       </c>
@@ -2278,18 +2283,18 @@
         <v>0.6</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" s="2">
         <v>4.5</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
         <v>35</v>
@@ -2307,17 +2312,17 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K23" s="2">
         <v>50</v>
       </c>
@@ -2325,18 +2330,18 @@
         <v>0.6</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N23" s="2">
         <v>5.5</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3">
         <v>49</v>
@@ -2354,17 +2359,17 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K24" s="2">
         <v>50</v>
       </c>
@@ -2372,18 +2377,18 @@
         <v>0.6</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N24" s="2">
         <v>6.5</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>61</v>
@@ -2401,17 +2406,17 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K25" s="2">
         <v>50</v>
       </c>
@@ -2419,18 +2424,18 @@
         <v>0.6</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N25" s="2">
         <v>7.5</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>71</v>
@@ -2448,17 +2453,17 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="K26" s="2">
         <v>50</v>
       </c>
@@ -2466,18 +2471,18 @@
         <v>0.6</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N26" s="2">
         <v>8.5</v>
       </c>
       <c r="O26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2495,17 +2500,17 @@
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K27" s="2">
         <v>50</v>
       </c>
@@ -2513,18 +2518,18 @@
         <v>0.6</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N27" s="2">
         <v>0.5</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3">
         <v>13</v>
@@ -2542,36 +2547,36 @@
         <v>73</v>
       </c>
       <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="2">
+        <v>50</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O28" t="s">
         <v>54</v>
-      </c>
-      <c r="H28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="2">
-        <v>50</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <v>7</v>
@@ -2589,17 +2594,17 @@
         <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K29" s="2">
         <v>50</v>
       </c>
@@ -2607,18 +2612,18 @@
         <v>0.6</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" s="2">
         <v>0.5</v>
       </c>
       <c r="O29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3">
         <v>9</v>
@@ -2636,17 +2641,17 @@
         <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K30" s="2">
         <v>50</v>
       </c>
@@ -2654,18 +2659,18 @@
         <v>0.6</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N30" s="2">
         <v>0.5</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3">
         <v>5</v>
@@ -2683,17 +2688,17 @@
         <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K31" s="2">
         <v>50</v>
       </c>
@@ -2701,18 +2706,18 @@
         <v>0.6</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N31" s="2">
         <v>0.5</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -2730,17 +2735,17 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K32" s="2">
         <v>50</v>
       </c>
@@ -2748,18 +2753,18 @@
         <v>0.6</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N32" s="2">
         <v>0.5</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -2777,17 +2782,17 @@
         <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K33" s="2">
         <v>50</v>
       </c>
@@ -2795,18 +2800,18 @@
         <v>0.6</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N33" s="2">
         <v>1.5</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
@@ -2824,17 +2829,17 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K34" s="2">
         <v>50</v>
       </c>
@@ -2842,18 +2847,18 @@
         <v>0.6</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N34" s="2">
         <v>2.5</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
         <v>21</v>
@@ -2871,17 +2876,17 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K35" s="2">
         <v>50</v>
       </c>
@@ -2889,18 +2894,18 @@
         <v>0.6</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N35" s="2">
         <v>0.5</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
         <v>21</v>
@@ -2918,17 +2923,17 @@
         <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K36" s="2">
         <v>50</v>
       </c>
@@ -2936,18 +2941,18 @@
         <v>0.6</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N36" s="2">
         <v>0.5</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3">
         <v>16</v>
@@ -2965,36 +2970,36 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="2">
+        <v>50</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O37" t="s">
         <v>73</v>
-      </c>
-      <c r="H37" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" s="2">
-        <v>50</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O37" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3">
         <v>18</v>
@@ -3012,17 +3017,17 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K38" s="2">
         <v>50</v>
       </c>
@@ -3030,18 +3035,18 @@
         <v>0.6</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N38" s="2">
         <v>0.5</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3">
         <v>22</v>
@@ -3059,17 +3064,17 @@
         <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K39" s="2">
         <v>50</v>
       </c>
@@ -3077,18 +3082,18 @@
         <v>0.6</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N39" s="2">
         <v>0.5</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3">
         <v>16</v>
@@ -3106,17 +3111,17 @@
         <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K40" s="2">
         <v>50</v>
       </c>
@@ -3124,18 +3129,18 @@
         <v>0.6</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N40" s="2">
         <v>0.5</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="3">
         <v>21</v>
@@ -3153,17 +3158,17 @@
         <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K41" s="2">
         <v>50</v>
       </c>
@@ -3171,18 +3176,18 @@
         <v>0.6</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N41" s="2">
         <v>0.5</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3">
         <v>15</v>
@@ -3200,17 +3205,17 @@
         <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K42" s="2">
         <v>50</v>
       </c>
@@ -3218,18 +3223,18 @@
         <v>0.6</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N42" s="2">
         <v>0.5</v>
       </c>
       <c r="O42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3">
         <v>18</v>
@@ -3247,17 +3252,17 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="K43" s="2">
         <v>50</v>
       </c>
@@ -3265,18 +3270,18 @@
         <v>0.6</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N43" s="2">
         <v>0.5</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3">
         <v>31</v>
@@ -3294,16 +3299,16 @@
         <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K44" s="2">
         <v>50</v>
@@ -3312,18 +3317,18 @@
         <v>0.6</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N44" s="2">
         <v>0.5</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3">
         <v>34</v>
@@ -3341,36 +3346,36 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="2">
+        <v>50</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O45" t="s">
         <v>89</v>
-      </c>
-      <c r="H45" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K45" s="2">
-        <v>50</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O45" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="3">
         <v>30</v>
@@ -3388,16 +3393,16 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K46" s="2">
         <v>50</v>
@@ -3406,18 +3411,18 @@
         <v>0.6</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N46" s="2">
         <v>0.5</v>
       </c>
       <c r="O46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3">
         <v>38</v>
@@ -3435,16 +3440,16 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K47" s="2">
         <v>50</v>
@@ -3453,18 +3458,18 @@
         <v>0.6</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N47" s="2">
         <v>0.5</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="3">
         <v>38</v>
@@ -3482,16 +3487,16 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" s="2">
         <v>50</v>
@@ -3500,18 +3505,18 @@
         <v>0.6</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N48" s="2">
         <v>0.5</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3">
         <v>35</v>
@@ -3529,16 +3534,16 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K49" s="2">
         <v>50</v>
@@ -3547,18 +3552,18 @@
         <v>0.6</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N49" s="2">
         <v>0.5</v>
       </c>
       <c r="O49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3">
         <v>32</v>
@@ -3576,16 +3581,16 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K50" s="2">
         <v>50</v>
@@ -3594,18 +3599,18 @@
         <v>0.6</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N50" s="2">
         <v>0.5</v>
       </c>
       <c r="O50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3">
         <v>26</v>
@@ -3623,16 +3628,16 @@
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K51" s="2">
         <v>50</v>
@@ -3641,18 +3646,18 @@
         <v>0.6</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N51" s="2">
         <v>0.5</v>
       </c>
       <c r="O51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3">
         <v>40</v>
@@ -3670,16 +3675,16 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" s="2">
         <v>50</v>
@@ -3688,18 +3693,18 @@
         <v>0.6</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N52" s="2">
         <v>0.5</v>
       </c>
       <c r="O52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3">
         <v>30</v>
@@ -3717,16 +3722,16 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K53" s="2">
         <v>50</v>
@@ -3735,18 +3740,18 @@
         <v>0.6</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N53" s="2">
         <v>0.5</v>
       </c>
       <c r="O53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
         <v>35</v>
@@ -3764,16 +3769,16 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K54" s="2">
         <v>50</v>
@@ -3782,18 +3787,18 @@
         <v>0.6</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N54" s="2">
         <v>0.5</v>
       </c>
       <c r="O54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3">
         <v>23</v>
@@ -3811,16 +3816,16 @@
         <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K55" s="2">
         <v>50</v>
@@ -3829,18 +3834,18 @@
         <v>0.6</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N55" s="2">
         <v>0.5</v>
       </c>
       <c r="O55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3">
         <v>48</v>
@@ -3858,16 +3863,16 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K56" s="2">
         <v>50</v>
@@ -3876,18 +3881,18 @@
         <v>0.6</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N56" s="2">
         <v>0.5</v>
       </c>
       <c r="O56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="3">
         <v>27</v>
@@ -3905,16 +3910,16 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K57" s="2">
         <v>50</v>
@@ -3923,18 +3928,18 @@
         <v>0.6</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N57" s="2">
         <v>0.5</v>
       </c>
       <c r="O57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3">
         <v>39</v>
@@ -3952,16 +3957,16 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K58" s="2">
         <v>50</v>
@@ -3970,18 +3975,18 @@
         <v>0.6</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N58" s="2">
         <v>0.5</v>
       </c>
       <c r="O58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3">
         <v>28</v>
@@ -3999,16 +4004,16 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K59" s="2">
         <v>50</v>
@@ -4017,18 +4022,18 @@
         <v>0.6</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N59" s="2">
         <v>0.5</v>
       </c>
       <c r="O59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="3">
         <v>45</v>
@@ -4046,16 +4051,16 @@
         <v>70</v>
       </c>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K60" s="2">
         <v>50</v>
@@ -4064,18 +4069,18 @@
         <v>0.6</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N60" s="2">
         <v>0.5</v>
       </c>
       <c r="O60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3">
         <v>24</v>
@@ -4093,36 +4098,36 @@
         <v>83</v>
       </c>
       <c r="G61" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" t="s">
+        <v>174</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" s="2">
+        <v>50</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O61" t="s">
         <v>116</v>
-      </c>
-      <c r="H61" t="s">
-        <v>175</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K61" s="2">
-        <v>50</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O61" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3">
         <v>50</v>
@@ -4140,16 +4145,16 @@
         <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K62" s="2">
         <v>50</v>
@@ -4158,18 +4163,18 @@
         <v>0.6</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N62" s="2">
         <v>0.5</v>
       </c>
       <c r="O62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3">
         <v>61</v>
@@ -4187,16 +4192,16 @@
         <v>81</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K63" s="2">
         <v>50</v>
@@ -4205,18 +4210,18 @@
         <v>0.6</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N63" s="2">
         <v>0.5</v>
       </c>
       <c r="O63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="3">
         <v>58</v>
@@ -4234,16 +4239,16 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K64" s="2">
         <v>50</v>
@@ -4252,18 +4257,18 @@
         <v>0.6</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N64" s="2">
         <v>0.5</v>
       </c>
       <c r="O64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="3">
         <v>56</v>
@@ -4281,36 +4286,36 @@
         <v>28</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" t="s">
+        <v>174</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K65" s="2">
+        <v>50</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O65" t="s">
         <v>125</v>
-      </c>
-      <c r="H65" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K65" s="2">
-        <v>50</v>
-      </c>
-      <c r="L65" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" s="3">
         <v>90</v>
@@ -4328,16 +4333,16 @@
         <v>12</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" s="2">
         <v>50</v>
@@ -4346,18 +4351,18 @@
         <v>0.6</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N66" s="2">
         <v>0.5</v>
       </c>
       <c r="O66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="3">
         <v>80</v>
@@ -4375,16 +4380,16 @@
         <v>34</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K67" s="2">
         <v>50</v>
@@ -4393,18 +4398,18 @@
         <v>0.6</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N67" s="2">
         <v>0.5</v>
       </c>
       <c r="O67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="3">
         <v>62</v>
@@ -4422,16 +4427,16 @@
         <v>50</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K68" s="2">
         <v>50</v>
@@ -4440,18 +4445,18 @@
         <v>0.6</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N68" s="2">
         <v>0.5</v>
       </c>
       <c r="O68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3">
         <v>79</v>
@@ -4469,16 +4474,16 @@
         <v>30</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K69" s="2">
         <v>50</v>
@@ -4487,18 +4492,18 @@
         <v>0.6</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N69" s="2">
         <v>0.5</v>
       </c>
       <c r="O69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" s="3">
         <v>68</v>
@@ -4516,16 +4521,16 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K70" s="2">
         <v>50</v>
@@ -4534,18 +4539,18 @@
         <v>0.6</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N70" s="2">
         <v>0.5</v>
       </c>
       <c r="O70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" s="3">
         <v>78</v>
@@ -4563,16 +4568,16 @@
         <v>17</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K71" s="2">
         <v>50</v>
@@ -4581,18 +4586,18 @@
         <v>0.6</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N71" s="2">
         <v>0.5</v>
       </c>
       <c r="O71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" s="3">
         <v>68</v>
@@ -4610,16 +4615,16 @@
         <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K72" s="2">
         <v>50</v>
@@ -4628,18 +4633,18 @@
         <v>0.6</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N72" s="2">
         <v>0.5</v>
       </c>
       <c r="O72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="3">
         <v>55</v>
@@ -4657,16 +4662,16 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K73" s="2">
         <v>50</v>
@@ -4675,18 +4680,18 @@
         <v>0.6</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N73" s="2">
         <v>0.5</v>
       </c>
       <c r="O73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="3">
         <v>87</v>
@@ -4704,36 +4709,36 @@
         <v>25</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K74" s="2">
+        <v>50</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O74" t="s">
         <v>142</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K74" s="2">
-        <v>50</v>
-      </c>
-      <c r="L74" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O74" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3">
         <v>44</v>
@@ -4751,16 +4756,16 @@
         <v>55</v>
       </c>
       <c r="G75" t="s">
+        <v>140</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I75" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K75" s="2">
         <v>50</v>
@@ -4769,18 +4774,18 @@
         <v>0.6</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N75" s="2">
         <v>0.5</v>
       </c>
       <c r="O75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="3">
         <v>70</v>
@@ -4798,16 +4803,16 @@
         <v>55</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K76" s="2">
         <v>50</v>
@@ -4816,18 +4821,18 @@
         <v>0.6</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N76" s="2">
         <v>0.5</v>
       </c>
       <c r="O76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" s="3">
         <v>52</v>
@@ -4845,16 +4850,16 @@
         <v>58</v>
       </c>
       <c r="G77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K77" s="2">
         <v>50</v>
@@ -4863,18 +4868,18 @@
         <v>0.6</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N77" s="2">
         <v>0.5</v>
       </c>
       <c r="O77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="3">
         <v>67</v>
@@ -4892,16 +4897,16 @@
         <v>63</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K78" s="2">
         <v>50</v>
@@ -4910,18 +4915,18 @@
         <v>0.6</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N78" s="2">
         <v>0.5</v>
       </c>
       <c r="O78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="3">
         <v>46</v>
@@ -4939,16 +4944,16 @@
         <v>62</v>
       </c>
       <c r="G79" t="s">
+        <v>140</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K79" s="2">
         <v>50</v>
@@ -4957,18 +4962,18 @@
         <v>0.6</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N79" s="2">
         <v>0.5</v>
       </c>
       <c r="O79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" s="3">
         <v>22</v>
@@ -4986,16 +4991,16 @@
         <v>60</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K80" s="2">
         <v>50</v>
@@ -5004,18 +5009,18 @@
         <v>0.6</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N80" s="2">
         <v>0.5</v>
       </c>
       <c r="O80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="3">
         <v>74</v>
@@ -5033,16 +5038,16 @@
         <v>62</v>
       </c>
       <c r="G81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K81" s="2">
         <v>50</v>
@@ -5051,18 +5056,18 @@
         <v>0.6</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N81" s="2">
         <v>0.5</v>
       </c>
       <c r="O81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3">
         <v>89</v>
@@ -5080,16 +5085,16 @@
         <v>8</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K82" s="2">
         <v>50</v>
@@ -5098,18 +5103,18 @@
         <v>0.6</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N82" s="2">
         <v>0.5</v>
       </c>
       <c r="O82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="3">
         <v>82</v>
@@ -5127,16 +5132,16 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
+        <v>140</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K83" s="2">
         <v>50</v>
@@ -5145,18 +5150,18 @@
         <v>0.6</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N83" s="2">
         <v>0.5</v>
       </c>
       <c r="O83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84" s="3">
         <v>85</v>
@@ -5174,16 +5179,16 @@
         <v>27</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K84" s="2">
         <v>50</v>
@@ -5192,18 +5197,18 @@
         <v>0.6</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N84" s="2">
         <v>0.5</v>
       </c>
       <c r="O84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B85" s="3">
         <v>87</v>
@@ -5221,16 +5226,16 @@
         <v>27</v>
       </c>
       <c r="G85" t="s">
+        <v>140</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I85" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K85" s="2">
         <v>50</v>
@@ -5239,18 +5244,18 @@
         <v>0.6</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N85" s="2">
         <v>0.5</v>
       </c>
       <c r="O85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="3">
         <v>46</v>
@@ -5268,16 +5273,16 @@
         <v>78</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I86" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K86" s="2">
         <v>50</v>
@@ -5286,18 +5291,18 @@
         <v>0.6</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N86" s="2">
         <v>0.5</v>
       </c>
       <c r="O86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3">
         <v>79</v>
@@ -5315,16 +5320,16 @@
         <v>21</v>
       </c>
       <c r="G87" t="s">
+        <v>140</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I87" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K87" s="2">
         <v>50</v>
@@ -5333,18 +5338,18 @@
         <v>0.6</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N87" s="2">
         <v>0.5</v>
       </c>
       <c r="O87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B88" s="3">
         <v>73</v>
@@ -5362,16 +5367,16 @@
         <v>55</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I88" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K88" s="2">
         <v>50</v>
@@ -5380,18 +5385,18 @@
         <v>0.6</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N88" s="2">
         <v>0.5</v>
       </c>
       <c r="O88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" s="3">
         <v>78</v>
@@ -5409,16 +5414,16 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
+        <v>140</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I89" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K89" s="2">
         <v>50</v>
@@ -5427,13 +5432,13 @@
         <v>0.6</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N89" s="2">
         <v>0.5</v>
       </c>
       <c r="O89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5444,53 +5449,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>45.238095238095241</v>
       </c>
@@ -5501,31 +5506,31 @@
         <v>3.5714285714285712</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H2" s="2">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K2" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>50.588235294117645</v>
       </c>
@@ -5536,31 +5541,31 @@
         <v>7.0588235294117645</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>169</v>
       </c>
-      <c r="E3" t="s">
-        <v>170</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H3" s="2">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K3" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>48.888888888888893</v>
       </c>
@@ -5571,31 +5576,31 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K4" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>48.888888888888886</v>
       </c>
@@ -5606,31 +5611,31 @@
         <v>6.666666666666667</v>
       </c>
       <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H5" s="2">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K5" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>47.1264367816092</v>
       </c>
@@ -5641,31 +5646,31 @@
         <v>4.597701149425288</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H6" s="2">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K6" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>48.863636363636367</v>
       </c>
@@ -5676,31 +5681,31 @@
         <v>6.8181818181818175</v>
       </c>
       <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
         <v>169</v>
       </c>
-      <c r="E7" t="s">
-        <v>170</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K7" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>46.511627906976742</v>
       </c>
@@ -5711,31 +5716,31 @@
         <v>9.3023255813953476</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K8" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>48.314606741573044</v>
       </c>
@@ -5746,31 +5751,31 @@
         <v>4.4943820224719104</v>
       </c>
       <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
         <v>169</v>
       </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H9" s="2">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K9" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>51.086956521739133</v>
       </c>
@@ -5781,31 +5786,31 @@
         <v>7.6086956521739149</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="2">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K10" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>50</v>
       </c>
@@ -5816,31 +5821,31 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H11" s="2">
-        <v>50</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K11" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>49.438202247191008</v>
       </c>
@@ -5851,31 +5856,31 @@
         <v>7.8651685393258441</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="2">
-        <v>50</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K12" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>48.314606741573037</v>
       </c>
@@ -5886,31 +5891,31 @@
         <v>6.7415730337078648</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="2">
-        <v>50</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K13" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>49.438202247191008</v>
       </c>
@@ -5921,31 +5926,31 @@
         <v>5.617977528089888</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="2">
-        <v>50</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K14" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>49.450549450549453</v>
       </c>
@@ -5956,31 +5961,31 @@
         <v>7.6923076923076925</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="2">
-        <v>50</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K15" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>51.111111111111107</v>
       </c>
@@ -5991,17 +5996,17 @@
         <v>6.666666666666667</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H16" s="2">
         <v>50</v>
       </c>
@@ -6009,13 +6014,13 @@
         <v>0.6</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K16" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>49.450549450549453</v>
       </c>
@@ -6026,17 +6031,17 @@
         <v>6.593406593406594</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H17" s="2">
         <v>50</v>
       </c>
@@ -6044,13 +6049,13 @@
         <v>0.6</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K17" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>50</v>
       </c>
@@ -6061,17 +6066,17 @@
         <v>7.4468085106382986</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H18" s="2">
         <v>50</v>
       </c>
@@ -6079,13 +6084,13 @@
         <v>0.6</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K18" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>52.272727272727273</v>
       </c>
@@ -6096,17 +6101,17 @@
         <v>7.9545454545454541</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H19" s="2">
         <v>50</v>
       </c>
@@ -6114,13 +6119,13 @@
         <v>0.6</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K19" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>51.724137931034484</v>
       </c>
@@ -6131,17 +6136,17 @@
         <v>8.045977011494255</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H20" s="2">
         <v>50</v>
       </c>
@@ -6149,13 +6154,13 @@
         <v>0.6</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>46.153846153846153</v>
       </c>
@@ -6166,17 +6171,17 @@
         <v>6.593406593406594</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H21" s="2">
         <v>50</v>
       </c>
@@ -6184,13 +6189,13 @@
         <v>0.6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K21" s="2">
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>43.333333333333336</v>
       </c>
@@ -6201,17 +6206,17 @@
         <v>5.5555555555555562</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H22" s="2">
         <v>50</v>
       </c>
@@ -6219,13 +6224,13 @@
         <v>0.6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K22" s="2">
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>52.054794520547944</v>
       </c>
@@ -6236,17 +6241,17 @@
         <v>5.4794520547945211</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H23" s="2">
         <v>50</v>
       </c>
@@ -6254,13 +6259,13 @@
         <v>0.6</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K23" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>48.387096774193544</v>
       </c>
@@ -6271,17 +6276,17 @@
         <v>8.6021505376344081</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H24" s="2">
         <v>50</v>
       </c>
@@ -6289,13 +6294,13 @@
         <v>0.6</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>44.943820224719104</v>
       </c>
@@ -6306,17 +6311,17 @@
         <v>4.4943820224719104</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H25" s="2">
         <v>50</v>
       </c>
@@ -6324,13 +6329,13 @@
         <v>0.6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K25" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>45.555555555555557</v>
       </c>
@@ -6341,17 +6346,17 @@
         <v>4.4444444444444455</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H26" s="2">
         <v>50</v>
       </c>
@@ -6359,13 +6364,13 @@
         <v>0.6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K26" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>50</v>
       </c>
@@ -6376,17 +6381,17 @@
         <v>7.9545454545454559</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H27" s="2">
         <v>50</v>
       </c>
@@ -6394,13 +6399,13 @@
         <v>0.6</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K27" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>54.430379746835442</v>
       </c>
@@ -6411,17 +6416,17 @@
         <v>3.79746835443038</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H28" s="2">
         <v>50</v>
       </c>
@@ -6429,13 +6434,13 @@
         <v>0.6</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K28" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>50.574712643678168</v>
       </c>
@@ -6446,17 +6451,17 @@
         <v>6.8965517241379306</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H29" s="2">
         <v>50</v>
       </c>
@@ -6464,13 +6469,13 @@
         <v>0.6</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K29" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>46.153846153846153</v>
       </c>
@@ -6481,17 +6486,17 @@
         <v>3.296703296703297</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H30" s="2">
         <v>50</v>
       </c>
@@ -6499,13 +6504,13 @@
         <v>0.6</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>49.411764705882355</v>
       </c>
@@ -6516,17 +6521,17 @@
         <v>7.0588235294117645</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H31" s="2">
         <v>50</v>
       </c>
@@ -6534,13 +6539,13 @@
         <v>0.6</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K31" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>44.44444444444445</v>
       </c>
@@ -6551,17 +6556,17 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H32" s="2">
         <v>50</v>
       </c>
@@ -6569,13 +6574,13 @@
         <v>0.6</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>43.835616438356169</v>
       </c>
@@ -6586,17 +6591,17 @@
         <v>8.2191780821917799</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H33" s="2">
         <v>50</v>
       </c>
@@ -6604,25 +6609,25 @@
         <v>0.6</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K33" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H34" s="2">
         <v>50</v>
       </c>
@@ -6630,25 +6635,25 @@
         <v>0.6</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K34" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H35" s="2">
         <v>50</v>
       </c>
@@ -6656,25 +6661,25 @@
         <v>0.6</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K35" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H36" s="2">
         <v>50</v>
       </c>
@@ -6682,25 +6687,25 @@
         <v>0.6</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K36" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H37" s="2">
         <v>50</v>
       </c>
@@ -6708,25 +6713,25 @@
         <v>0.6</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H38" s="2">
         <v>50</v>
       </c>
@@ -6734,25 +6739,25 @@
         <v>0.6</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K38" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H39" s="2">
         <v>50</v>
       </c>
@@ -6760,25 +6765,25 @@
         <v>0.6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K39" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H40" s="2">
         <v>50</v>
       </c>
@@ -6786,493 +6791,493 @@
         <v>0.6</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K40" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="2">
+        <v>50</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="2">
+        <v>50</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H43" s="2">
+        <v>50</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="2">
+        <v>50</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="2">
+        <v>50</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" s="2">
+        <v>50</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" s="2">
+        <v>50</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="2">
+        <v>50</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H49" s="2">
+        <v>50</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50" s="2">
+        <v>50</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="2">
+        <v>50</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="2">
+        <v>50</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="2">
+        <v>50</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="2">
+        <v>50</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" s="2">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="2">
+        <v>50</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="2">
-        <v>50</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="H57" s="2">
+        <v>50</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="2">
-        <v>50</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="H58" s="2">
+        <v>50</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="2">
-        <v>50</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H44" s="2">
-        <v>50</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H45" s="2">
-        <v>50</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H46" s="2">
-        <v>50</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="2">
-        <v>50</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H48" s="2">
-        <v>50</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H49" s="2">
-        <v>50</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H50" s="2">
-        <v>50</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H51" s="2">
-        <v>50</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H52" s="2">
-        <v>50</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H53" s="2">
-        <v>50</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H54" s="2">
-        <v>50</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H55" s="2">
-        <v>50</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H56" s="2">
-        <v>50</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>175</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H57" s="2">
-        <v>50</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H58" s="2">
-        <v>50</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="H59" s="2">
         <v>50</v>
       </c>
@@ -7280,7 +7285,7 @@
         <v>0.6</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K59" s="2">
         <v>0.5</v>
@@ -7288,16 +7293,16 @@
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H60" s="2">
         <v>50</v>
@@ -7306,7 +7311,7 @@
         <v>0.6</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K60" s="2">
         <v>0.5</v>
@@ -7314,16 +7319,16 @@
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H61" s="2">
         <v>50</v>
@@ -7332,7 +7337,7 @@
         <v>0.6</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K61" s="2">
         <v>0.5</v>
@@ -7340,16 +7345,16 @@
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H62" s="2">
         <v>50</v>
@@ -7358,7 +7363,7 @@
         <v>0.6</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K62" s="2">
         <v>0.5</v>
@@ -7366,16 +7371,16 @@
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H63" s="2">
         <v>50</v>
@@ -7384,7 +7389,7 @@
         <v>0.6</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K63" s="2">
         <v>0.5</v>
@@ -7392,16 +7397,16 @@
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H64" s="2">
         <v>50</v>
@@ -7410,7 +7415,7 @@
         <v>0.6</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K64" s="2">
         <v>0.5</v>
@@ -7418,16 +7423,16 @@
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H65" s="2">
         <v>50</v>
@@ -7436,7 +7441,7 @@
         <v>0.6</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K65" s="2">
         <v>0.5</v>
@@ -7444,16 +7449,16 @@
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H66" s="2">
         <v>50</v>
@@ -7462,7 +7467,7 @@
         <v>0.6</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K66" s="2">
         <v>0.5</v>
@@ -7470,16 +7475,16 @@
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H67" s="2">
         <v>50</v>
@@ -7488,7 +7493,7 @@
         <v>0.6</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K67" s="2">
         <v>0.5</v>
@@ -7496,16 +7501,16 @@
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H68" s="2">
         <v>50</v>
@@ -7514,7 +7519,7 @@
         <v>0.6</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K68" s="2">
         <v>0.5</v>
@@ -7522,16 +7527,16 @@
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H69" s="2">
         <v>50</v>
@@ -7540,7 +7545,7 @@
         <v>0.6</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K69" s="2">
         <v>0.5</v>
@@ -7548,16 +7553,16 @@
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H70" s="2">
         <v>50</v>
@@ -7566,7 +7571,7 @@
         <v>0.6</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K70" s="2">
         <v>0.5</v>
@@ -7574,16 +7579,16 @@
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H71" s="2">
         <v>50</v>
@@ -7592,7 +7597,7 @@
         <v>0.6</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K71" s="2">
         <v>0.5</v>
@@ -7600,16 +7605,16 @@
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H72" s="2">
         <v>50</v>
@@ -7618,7 +7623,7 @@
         <v>0.6</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K72" s="2">
         <v>0.5</v>
@@ -7626,16 +7631,16 @@
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H73" s="2">
         <v>50</v>
@@ -7644,7 +7649,7 @@
         <v>0.6</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K73" s="2">
         <v>0.5</v>
@@ -7652,16 +7657,16 @@
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H74" s="2">
         <v>50</v>
@@ -7670,7 +7675,7 @@
         <v>0.6</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K74" s="2">
         <v>0.5</v>
@@ -7678,16 +7683,16 @@
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H75" s="2">
         <v>50</v>
@@ -7696,7 +7701,7 @@
         <v>0.6</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K75" s="2">
         <v>0.5</v>
@@ -7704,16 +7709,16 @@
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H76" s="2">
         <v>50</v>
@@ -7722,7 +7727,7 @@
         <v>0.6</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K76" s="2">
         <v>0.5</v>
@@ -7730,16 +7735,16 @@
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H77" s="2">
         <v>50</v>
@@ -7748,7 +7753,7 @@
         <v>0.6</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K77" s="2">
         <v>0.5</v>
@@ -7756,16 +7761,16 @@
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H78" s="2">
         <v>50</v>
@@ -7774,7 +7779,7 @@
         <v>0.6</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K78" s="2">
         <v>0.5</v>
@@ -7782,16 +7787,16 @@
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H79" s="2">
         <v>50</v>
@@ -7800,7 +7805,7 @@
         <v>0.6</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K79" s="2">
         <v>0.5</v>
@@ -7808,16 +7813,16 @@
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H80" s="2">
         <v>50</v>
@@ -7826,7 +7831,7 @@
         <v>0.6</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K80" s="2">
         <v>0.5</v>
@@ -7834,16 +7839,16 @@
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H81" s="2">
         <v>50</v>
@@ -7852,7 +7857,7 @@
         <v>0.6</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K81" s="2">
         <v>0.5</v>
@@ -7860,16 +7865,16 @@
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H82" s="2">
         <v>50</v>
@@ -7878,7 +7883,7 @@
         <v>0.6</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K82" s="2">
         <v>0.5</v>
@@ -7886,16 +7891,16 @@
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H83" s="2">
         <v>50</v>
@@ -7904,7 +7909,7 @@
         <v>0.6</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K83" s="2">
         <v>0.5</v>
@@ -7912,16 +7917,16 @@
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H84" s="2">
         <v>50</v>
@@ -7930,7 +7935,7 @@
         <v>0.6</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K84" s="2">
         <v>0.5</v>
@@ -7938,16 +7943,16 @@
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H85" s="2">
         <v>50</v>
@@ -7956,7 +7961,7 @@
         <v>0.6</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K85" s="2">
         <v>0.5</v>
@@ -7964,16 +7969,16 @@
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H86" s="2">
         <v>50</v>
@@ -7982,7 +7987,7 @@
         <v>0.6</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K86" s="2">
         <v>0.5</v>
